--- a/biology/Zoologie/Copiula_pipiens/Copiula_pipiens.xlsx
+++ b/biology/Zoologie/Copiula_pipiens/Copiula_pipiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copiula pipiens est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copiula pipiens est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique de Nouvelle-Guinée. Elle se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique de Nouvelle-Guinée. Elle se rencontre, :
 dans les environs de Wewak sur la côte nord de la Papouasie-Nouvelle-Guinée ;
 sur l'île Yapen, dans la province indonésienne de Papouasie, entre 620 et 680 m d'altitude.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Copiula pipiens mesure de 23 à 25 mm pour les mâles et en moyenne 28 mm pour les femelles. Son dos est orange rosé ; son ventre est beige et présente des taches brunes.
 </t>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin pipiens, « qui piaule », lui a été donné en référence à son cri d'appel particulièrement aigu.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Burton &amp; Stocks, 1986 : A new species of terrestrial microhylid frog from Papua New Guinea. Transactions of the Royal Society of South Australia, vol. 110, p. 155-158 (texte intégral).</t>
         </is>
